--- a/1 лаба/Docs/МэппингСценария.xlsx
+++ b/1 лаба/Docs/МэппингСценария.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
